--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>789.7698521134686</v>
+        <v>945.0851315775998</v>
       </c>
       <c r="AB2" t="n">
-        <v>1080.597953848485</v>
+        <v>1293.107171237848</v>
       </c>
       <c r="AC2" t="n">
-        <v>977.4672017619389</v>
+        <v>1169.69483770222</v>
       </c>
       <c r="AD2" t="n">
-        <v>789769.8521134686</v>
+        <v>945085.1315775998</v>
       </c>
       <c r="AE2" t="n">
-        <v>1080597.953848485</v>
+        <v>1293107.171237848</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.778507894480565e-07</v>
+        <v>1.265566244141065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.62239583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>977467.2017619389</v>
+        <v>1169694.83770222</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.3723046874784</v>
+        <v>694.068861623655</v>
       </c>
       <c r="AB3" t="n">
-        <v>784.5132826742318</v>
+        <v>949.6556366305982</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.64043604711</v>
+        <v>859.0218355206302</v>
       </c>
       <c r="AD3" t="n">
-        <v>573372.3046874783</v>
+        <v>694068.8616236551</v>
       </c>
       <c r="AE3" t="n">
-        <v>784513.2826742318</v>
+        <v>949655.6366305982</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.122493138997502e-06</v>
+        <v>1.618258413697355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.0703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>709640.43604711</v>
+        <v>859021.8355206302</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>503.2413178047177</v>
+        <v>615.3897582914315</v>
       </c>
       <c r="AB4" t="n">
-        <v>688.5569724604583</v>
+        <v>842.0034163743874</v>
       </c>
       <c r="AC4" t="n">
-        <v>622.8420614046119</v>
+        <v>761.6437920748322</v>
       </c>
       <c r="AD4" t="n">
-        <v>503241.3178047177</v>
+        <v>615389.7582914315</v>
       </c>
       <c r="AE4" t="n">
-        <v>688556.9724604583</v>
+        <v>842003.4163743873</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.220667523331531e-06</v>
+        <v>1.759792929979556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>622842.0614046118</v>
+        <v>761643.7920748321</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>471.70604341162</v>
+        <v>583.769143043762</v>
       </c>
       <c r="AB5" t="n">
-        <v>645.4090187977042</v>
+        <v>798.7386955894358</v>
       </c>
       <c r="AC5" t="n">
-        <v>583.8120878808978</v>
+        <v>722.5081955191793</v>
       </c>
       <c r="AD5" t="n">
-        <v>471706.04341162</v>
+        <v>583769.1430437621</v>
       </c>
       <c r="AE5" t="n">
-        <v>645409.0187977043</v>
+        <v>798738.6955894358</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271178547510999e-06</v>
+        <v>1.832612876064835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="AH5" t="n">
-        <v>583812.0878808978</v>
+        <v>722508.1955191792</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>457.2816508029094</v>
+        <v>560.7114721481192</v>
       </c>
       <c r="AB6" t="n">
-        <v>625.6729284711768</v>
+        <v>767.1901730373697</v>
       </c>
       <c r="AC6" t="n">
-        <v>565.9595823153571</v>
+        <v>693.9706196808531</v>
       </c>
       <c r="AD6" t="n">
-        <v>457281.6508029095</v>
+        <v>560711.4721481192</v>
       </c>
       <c r="AE6" t="n">
-        <v>625672.9284711768</v>
+        <v>767190.1730373697</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.304696953574638e-06</v>
+        <v>1.880935169308117e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.29427083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>565959.5823153572</v>
+        <v>693970.6196808531</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>436.8041039854565</v>
+        <v>540.3191766766869</v>
       </c>
       <c r="AB7" t="n">
-        <v>597.6546455099312</v>
+        <v>739.2885347287736</v>
       </c>
       <c r="AC7" t="n">
-        <v>540.6153249560259</v>
+        <v>668.731874572234</v>
       </c>
       <c r="AD7" t="n">
-        <v>436804.1039854565</v>
+        <v>540319.1766766869</v>
       </c>
       <c r="AE7" t="n">
-        <v>597654.6455099313</v>
+        <v>739288.5347287736</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.326031092253027e-06</v>
+        <v>1.911691837848757e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>540615.3249560259</v>
+        <v>668731.874572234</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>425.0888441431303</v>
+        <v>528.6039168343606</v>
       </c>
       <c r="AB8" t="n">
-        <v>581.625310152873</v>
+        <v>723.2591993717153</v>
       </c>
       <c r="AC8" t="n">
-        <v>526.1158068681317</v>
+        <v>654.2323564843398</v>
       </c>
       <c r="AD8" t="n">
-        <v>425088.8441431303</v>
+        <v>528603.9168343606</v>
       </c>
       <c r="AE8" t="n">
-        <v>581625.310152873</v>
+        <v>723259.1993717153</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.338985629415506e-06</v>
+        <v>1.930367933078577e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.6953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>526115.8068681317</v>
+        <v>654232.3564843398</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>417.3818878508693</v>
+        <v>520.7263683415074</v>
       </c>
       <c r="AB9" t="n">
-        <v>571.0803125468865</v>
+        <v>712.4807899908819</v>
       </c>
       <c r="AC9" t="n">
-        <v>516.5772090336636</v>
+        <v>644.4826233672206</v>
       </c>
       <c r="AD9" t="n">
-        <v>417381.8878508693</v>
+        <v>520726.3683415074</v>
       </c>
       <c r="AE9" t="n">
-        <v>571080.3125468865</v>
+        <v>712480.7899908819</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.351986849594787e-06</v>
+        <v>1.949111329552468e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.47395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>516577.2090336636</v>
+        <v>644482.6233672206</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>416.6245723538142</v>
+        <v>519.9690528444523</v>
       </c>
       <c r="AB10" t="n">
-        <v>570.0441200734139</v>
+        <v>711.4445975174092</v>
       </c>
       <c r="AC10" t="n">
-        <v>515.6399093155538</v>
+        <v>643.545323649111</v>
       </c>
       <c r="AD10" t="n">
-        <v>416624.5723538143</v>
+        <v>519969.0528444523</v>
       </c>
       <c r="AE10" t="n">
-        <v>570044.1200734138</v>
+        <v>711444.5975174092</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.351963508086386e-06</v>
+        <v>1.949077678930432e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.47395833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>515639.9093155538</v>
+        <v>643545.323649111</v>
       </c>
     </row>
     <row r="11">
@@ -4056,28 +4056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>417.3653567990262</v>
+        <v>520.7098372896643</v>
       </c>
       <c r="AB11" t="n">
-        <v>571.0576940324562</v>
+        <v>712.4581714764515</v>
       </c>
       <c r="AC11" t="n">
-        <v>516.5567491985051</v>
+        <v>644.4621635320622</v>
       </c>
       <c r="AD11" t="n">
-        <v>417365.3567990262</v>
+        <v>520709.8372896643</v>
       </c>
       <c r="AE11" t="n">
-        <v>571057.6940324561</v>
+        <v>712458.1714764516</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.351706751493976e-06</v>
+        <v>1.948707522088039e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.48697916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>516556.7491985052</v>
+        <v>644462.1635320622</v>
       </c>
     </row>
   </sheetData>
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>643.223431180509</v>
+        <v>769.4848740141056</v>
       </c>
       <c r="AB2" t="n">
-        <v>880.0866755562078</v>
+        <v>1052.843151902863</v>
       </c>
       <c r="AC2" t="n">
-        <v>796.0924384505296</v>
+        <v>952.3612791598972</v>
       </c>
       <c r="AD2" t="n">
-        <v>643223.431180509</v>
+        <v>769484.8740141055</v>
       </c>
       <c r="AE2" t="n">
-        <v>880086.6755562078</v>
+        <v>1052843.151902863</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.01383757866613e-06</v>
+        <v>1.484220075659131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>796092.4384505296</v>
+        <v>952361.2791598972</v>
       </c>
     </row>
     <row r="3">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>486.0278015596535</v>
+        <v>595.2837155741006</v>
       </c>
       <c r="AB3" t="n">
-        <v>665.0046801272207</v>
+        <v>814.493441712533</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.5375667958086</v>
+        <v>736.7593307842131</v>
       </c>
       <c r="AD3" t="n">
-        <v>486027.8015596535</v>
+        <v>595283.7155741006</v>
       </c>
       <c r="AE3" t="n">
-        <v>665004.6801272207</v>
+        <v>814493.441712533</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.241442147139871e-06</v>
+        <v>1.817424601659155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.32552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>601537.5667958086</v>
+        <v>736759.3307842131</v>
       </c>
     </row>
     <row r="4">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.8074622280538</v>
+        <v>547.0632867339499</v>
       </c>
       <c r="AB4" t="n">
-        <v>599.0274845224944</v>
+        <v>748.5161236382581</v>
       </c>
       <c r="AC4" t="n">
-        <v>541.8571421400217</v>
+        <v>677.0787953471995</v>
       </c>
       <c r="AD4" t="n">
-        <v>437807.4622280538</v>
+        <v>547063.2867339499</v>
       </c>
       <c r="AE4" t="n">
-        <v>599027.4845224945</v>
+        <v>748516.1236382581</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.321898164767126e-06</v>
+        <v>1.935209184794321e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.7890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>541857.1421400217</v>
+        <v>677078.7953471995</v>
       </c>
     </row>
     <row r="5">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>409.6752635452392</v>
+        <v>510.599005350704</v>
       </c>
       <c r="AB5" t="n">
-        <v>560.5357691796544</v>
+        <v>698.6240851591421</v>
       </c>
       <c r="AC5" t="n">
-        <v>507.0390220860406</v>
+        <v>631.9483829966146</v>
       </c>
       <c r="AD5" t="n">
-        <v>409675.2635452392</v>
+        <v>510599.005350704</v>
       </c>
       <c r="AE5" t="n">
-        <v>560535.7691796544</v>
+        <v>698624.085159142</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.369925481411967e-06</v>
+        <v>2.005519369625007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.95572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>507039.0220860406</v>
+        <v>631948.3829966146</v>
       </c>
     </row>
     <row r="6">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>395.1451441613474</v>
+        <v>495.89829376622</v>
       </c>
       <c r="AB6" t="n">
-        <v>540.6550188149877</v>
+        <v>678.5099230196282</v>
       </c>
       <c r="AC6" t="n">
-        <v>489.0556626333692</v>
+        <v>613.7538882612921</v>
       </c>
       <c r="AD6" t="n">
-        <v>395145.1441613474</v>
+        <v>495898.29376622</v>
       </c>
       <c r="AE6" t="n">
-        <v>540655.0188149876</v>
+        <v>678509.9230196283</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39762147547513e-06</v>
+        <v>2.046065263039183e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>489055.6626333692</v>
+        <v>613753.8882612921</v>
       </c>
     </row>
     <row r="7">
@@ -4883,28 +4883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>387.4971152062271</v>
+        <v>480.0035229652399</v>
       </c>
       <c r="AB7" t="n">
-        <v>530.1906481913675</v>
+        <v>656.7619963819297</v>
       </c>
       <c r="AC7" t="n">
-        <v>479.5899968552309</v>
+        <v>594.0815532184888</v>
       </c>
       <c r="AD7" t="n">
-        <v>387497.1152062271</v>
+        <v>480003.5229652399</v>
       </c>
       <c r="AE7" t="n">
-        <v>530190.6481913675</v>
+        <v>656761.9963819297</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.409235924598392e-06</v>
+        <v>2.063068379632225e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.3046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>479589.9968552309</v>
+        <v>594081.5532184888</v>
       </c>
     </row>
     <row r="8">
@@ -4989,28 +4989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>387.7637768580724</v>
+        <v>480.2701846170852</v>
       </c>
       <c r="AB8" t="n">
-        <v>530.5555064277041</v>
+        <v>657.1268546182664</v>
       </c>
       <c r="AC8" t="n">
-        <v>479.9200335335734</v>
+        <v>594.4115898968312</v>
       </c>
       <c r="AD8" t="n">
-        <v>387763.7768580724</v>
+        <v>480270.1846170852</v>
       </c>
       <c r="AE8" t="n">
-        <v>530555.5064277041</v>
+        <v>657126.8546182665</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.409332510453887e-06</v>
+        <v>2.063209777691211e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.3046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>479920.0335335734</v>
+        <v>594411.5898968312</v>
       </c>
     </row>
   </sheetData>
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.0639905896642</v>
+        <v>458.1862040545218</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.4966574113761</v>
+        <v>626.9105781361058</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.8253974759953</v>
+        <v>567.0791124333176</v>
       </c>
       <c r="AD2" t="n">
-        <v>365063.9905896642</v>
+        <v>458186.2040545218</v>
       </c>
       <c r="AE2" t="n">
-        <v>499496.6574113761</v>
+        <v>626910.5781361058</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.439776168524016e-06</v>
+        <v>2.22751144847619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.36197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>451825.3974759953</v>
+        <v>567079.1124333176</v>
       </c>
     </row>
     <row r="3">
@@ -5392,28 +5392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.3784332168561</v>
+        <v>410.3299649725706</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.2511740755833</v>
+        <v>561.4315605559176</v>
       </c>
       <c r="AC3" t="n">
-        <v>392.8068514971596</v>
+        <v>507.8493203906042</v>
       </c>
       <c r="AD3" t="n">
-        <v>317378.4332168562</v>
+        <v>410329.9649725705</v>
       </c>
       <c r="AE3" t="n">
-        <v>434251.1740755833</v>
+        <v>561431.5605559176</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.562532741317552e-06</v>
+        <v>2.417431018789416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>392806.8514971596</v>
+        <v>507849.3203906043</v>
       </c>
     </row>
     <row r="4">
@@ -5498,28 +5498,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.5372445778054</v>
+        <v>410.4887763335199</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.4684667858969</v>
+        <v>561.6488532662312</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.0034060961731</v>
+        <v>508.0458749896177</v>
       </c>
       <c r="AD4" t="n">
-        <v>317537.2445778054</v>
+        <v>410488.7763335198</v>
       </c>
       <c r="AE4" t="n">
-        <v>434468.4667858969</v>
+        <v>561648.8532662311</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563017732167044e-06</v>
+        <v>2.418181359497414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>393003.4060961731</v>
+        <v>508045.8749896177</v>
       </c>
     </row>
   </sheetData>
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.5258446575228</v>
+        <v>563.5704287667833</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.797580574813</v>
+        <v>771.1019236112902</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.8358465691023</v>
+        <v>697.509038270175</v>
       </c>
       <c r="AD2" t="n">
-        <v>451525.8446575229</v>
+        <v>563570.4287667832</v>
       </c>
       <c r="AE2" t="n">
-        <v>617797.5805748129</v>
+        <v>771101.9236112902</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.268895268872291e-06</v>
+        <v>1.917673766428022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.4453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>558835.8465691023</v>
+        <v>697509.038270175</v>
       </c>
     </row>
     <row r="3">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.0544710039687</v>
+        <v>468.1414649443117</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.0613411124579</v>
+        <v>640.5318052806298</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.4772411887637</v>
+        <v>579.4003487766806</v>
       </c>
       <c r="AD3" t="n">
-        <v>372054.4710039687</v>
+        <v>468141.4649443117</v>
       </c>
       <c r="AE3" t="n">
-        <v>509061.3411124579</v>
+        <v>640531.8052806298</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.449175471007152e-06</v>
+        <v>2.190130148543478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>460477.2411887638</v>
+        <v>579400.3487766807</v>
       </c>
     </row>
     <row r="4">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.6279641831595</v>
+        <v>430.7788334663294</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.7986962743686</v>
+        <v>589.4106045694865</v>
       </c>
       <c r="AC4" t="n">
-        <v>424.0572066650446</v>
+        <v>533.1580837123531</v>
       </c>
       <c r="AD4" t="n">
-        <v>342627.9641831595</v>
+        <v>430778.8334663294</v>
       </c>
       <c r="AE4" t="n">
-        <v>468798.6962743686</v>
+        <v>589410.6045694865</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50933760880852e-06</v>
+        <v>2.281052824531107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>424057.2066650447</v>
+        <v>533158.0837123531</v>
       </c>
     </row>
     <row r="5">
@@ -6113,28 +6113,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>343.3570929830344</v>
+        <v>431.5079622662043</v>
       </c>
       <c r="AB5" t="n">
-        <v>469.7963224652499</v>
+        <v>590.4082307603678</v>
       </c>
       <c r="AC5" t="n">
-        <v>424.9596208124454</v>
+        <v>534.0604978597538</v>
       </c>
       <c r="AD5" t="n">
-        <v>343357.0929830344</v>
+        <v>431507.9622662043</v>
       </c>
       <c r="AE5" t="n">
-        <v>469796.3224652499</v>
+        <v>590408.2307603678</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505651582370818e-06</v>
+        <v>2.2754821550083e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>424959.6208124454</v>
+        <v>534060.4978597538</v>
       </c>
     </row>
   </sheetData>
@@ -6410,28 +6410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.7940288666552</v>
+        <v>400.3291763117568</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.8738574433333</v>
+        <v>547.7480403065351</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.4199313996362</v>
+        <v>495.4717361088817</v>
       </c>
       <c r="AD2" t="n">
-        <v>309794.0288666552</v>
+        <v>400329.1763117568</v>
       </c>
       <c r="AE2" t="n">
-        <v>423873.8574433334</v>
+        <v>547748.0403065351</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.57225546186628e-06</v>
+        <v>2.484930875230106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>383419.9313996362</v>
+        <v>495471.7361088817</v>
       </c>
     </row>
     <row r="3">
@@ -6516,28 +6516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.304511232818</v>
+        <v>388.9249100239401</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.1533925349731</v>
+        <v>532.1442200508241</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.1998055983188</v>
+        <v>481.3571225582764</v>
       </c>
       <c r="AD3" t="n">
-        <v>298304.511232818</v>
+        <v>388924.9100239401</v>
       </c>
       <c r="AE3" t="n">
-        <v>408153.3925349731</v>
+        <v>532144.2200508241</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.59343900524321e-06</v>
+        <v>2.518411211130244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>369199.8055983188</v>
+        <v>481357.1225582765</v>
       </c>
     </row>
   </sheetData>
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>672.0280799357395</v>
+        <v>815.9185033180819</v>
       </c>
       <c r="AB2" t="n">
-        <v>919.4984667545307</v>
+        <v>1116.375692023712</v>
       </c>
       <c r="AC2" t="n">
-        <v>831.7428236116809</v>
+        <v>1009.830362820093</v>
       </c>
       <c r="AD2" t="n">
-        <v>672028.0799357395</v>
+        <v>815918.5033180818</v>
       </c>
       <c r="AE2" t="n">
-        <v>919498.4667545307</v>
+        <v>1116375.692023712</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.771156385982739e-07</v>
+        <v>1.424523492190479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.88802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>831742.8236116809</v>
+        <v>1009830.362820093</v>
       </c>
     </row>
     <row r="3">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.6249163614859</v>
+        <v>622.0927917865073</v>
       </c>
       <c r="AB3" t="n">
-        <v>689.0818289290025</v>
+        <v>851.1748025193173</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.3168263084387</v>
+        <v>769.9398739982113</v>
       </c>
       <c r="AD3" t="n">
-        <v>503624.916361486</v>
+        <v>622092.7917865072</v>
       </c>
       <c r="AE3" t="n">
-        <v>689081.8289290025</v>
+        <v>851174.8025193173</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.208945195739314e-06</v>
+        <v>1.762504624910126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.76822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>623316.8263084388</v>
+        <v>769939.8739982112</v>
       </c>
     </row>
     <row r="4">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>460.3014263969138</v>
+        <v>561.9063668801772</v>
       </c>
       <c r="AB4" t="n">
-        <v>629.8047186619903</v>
+        <v>768.8250807248068</v>
       </c>
       <c r="AC4" t="n">
-        <v>569.6970402493636</v>
+        <v>695.4494940732084</v>
       </c>
       <c r="AD4" t="n">
-        <v>460301.4263969138</v>
+        <v>561906.3668801772</v>
       </c>
       <c r="AE4" t="n">
-        <v>629804.7186619902</v>
+        <v>768825.0807248068</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.295905209225125e-06</v>
+        <v>1.889282436254387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.04947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>569697.0402493635</v>
+        <v>695449.4940732084</v>
       </c>
     </row>
     <row r="5">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>433.1963138621489</v>
+        <v>534.7159134908406</v>
       </c>
       <c r="AB5" t="n">
-        <v>592.7183078987547</v>
+        <v>731.6219028393735</v>
       </c>
       <c r="AC5" t="n">
-        <v>536.1501044782668</v>
+        <v>661.7969352701728</v>
       </c>
       <c r="AD5" t="n">
-        <v>433196.3138621489</v>
+        <v>534715.9134908407</v>
       </c>
       <c r="AE5" t="n">
-        <v>592718.3078987547</v>
+        <v>731621.9028393736</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.342184974244816e-06</v>
+        <v>1.956753071130501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.21614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>536150.1044782668</v>
+        <v>661796.9352701728</v>
       </c>
     </row>
     <row r="6">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>409.3657479721323</v>
+        <v>510.9705989468447</v>
       </c>
       <c r="AB6" t="n">
-        <v>560.1122763176663</v>
+        <v>699.1325159109343</v>
       </c>
       <c r="AC6" t="n">
-        <v>506.6559467884246</v>
+        <v>632.4082898310429</v>
       </c>
       <c r="AD6" t="n">
-        <v>409365.7479721323</v>
+        <v>510970.5989468447</v>
       </c>
       <c r="AE6" t="n">
-        <v>560112.2763176663</v>
+        <v>699132.5159109343</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370206486570596e-06</v>
+        <v>1.997605249744736e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>506655.9467884246</v>
+        <v>632408.2898310429</v>
       </c>
     </row>
     <row r="7">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>396.0058635054676</v>
+        <v>489.1366213362907</v>
       </c>
       <c r="AB7" t="n">
-        <v>541.8326929938705</v>
+        <v>669.2583044970647</v>
       </c>
       <c r="AC7" t="n">
-        <v>490.1209412414955</v>
+        <v>605.385231225794</v>
       </c>
       <c r="AD7" t="n">
-        <v>396005.8635054676</v>
+        <v>489136.6213362907</v>
       </c>
       <c r="AE7" t="n">
-        <v>541832.6929938705</v>
+        <v>669258.3044970647</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391503793120506e-06</v>
+        <v>2.028654300954531e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>490120.9412414955</v>
+        <v>605385.2312257939</v>
       </c>
     </row>
     <row r="8">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>393.8438921776602</v>
+        <v>486.9746500084833</v>
       </c>
       <c r="AB8" t="n">
-        <v>538.874588443721</v>
+        <v>666.3001999469152</v>
       </c>
       <c r="AC8" t="n">
-        <v>487.4451540378864</v>
+        <v>602.7094440221849</v>
       </c>
       <c r="AD8" t="n">
-        <v>393843.8921776603</v>
+        <v>486974.6500084833</v>
       </c>
       <c r="AE8" t="n">
-        <v>538874.5884437209</v>
+        <v>666300.1999469151</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.394901790345323e-06</v>
+        <v>2.03360819451834e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH8" t="n">
-        <v>487445.1540378864</v>
+        <v>602709.4440221849</v>
       </c>
     </row>
     <row r="9">
@@ -7555,28 +7555,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>394.7873019848511</v>
+        <v>487.9180598156742</v>
       </c>
       <c r="AB9" t="n">
-        <v>540.1654033622227</v>
+        <v>667.5910148654169</v>
       </c>
       <c r="AC9" t="n">
-        <v>488.6127753922365</v>
+        <v>603.8770653765349</v>
       </c>
       <c r="AD9" t="n">
-        <v>394787.3019848511</v>
+        <v>487918.0598156741</v>
       </c>
       <c r="AE9" t="n">
-        <v>540165.4033622227</v>
+        <v>667591.0148654169</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.394566776534426e-06</v>
+        <v>2.033119782476838e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH9" t="n">
-        <v>488612.7753922365</v>
+        <v>603877.0653765349</v>
       </c>
     </row>
   </sheetData>
@@ -7852,28 +7852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.7648678333762</v>
+        <v>382.8186194053096</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.9420521609249</v>
+        <v>523.7893238358845</v>
       </c>
       <c r="AC2" t="n">
-        <v>363.5812668318987</v>
+        <v>473.79960591192</v>
       </c>
       <c r="AD2" t="n">
-        <v>293764.8678333762</v>
+        <v>382818.6194053096</v>
       </c>
       <c r="AE2" t="n">
-        <v>401942.0521609249</v>
+        <v>523789.3238358845</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.602860498319518e-06</v>
+        <v>2.568159026517035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.26822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>363581.2668318987</v>
+        <v>473799.60591192</v>
       </c>
     </row>
   </sheetData>
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.8751872380792</v>
+        <v>663.2880387131012</v>
       </c>
       <c r="AB2" t="n">
-        <v>738.681048791439</v>
+        <v>907.5399567703112</v>
       </c>
       <c r="AC2" t="n">
-        <v>668.1823662401468</v>
+        <v>820.9256170364812</v>
       </c>
       <c r="AD2" t="n">
-        <v>539875.1872380793</v>
+        <v>663288.0387131012</v>
       </c>
       <c r="AE2" t="n">
-        <v>738681.048791439</v>
+        <v>907539.9567703111</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.13126788144519e-06</v>
+        <v>1.679755417894961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>668182.3662401468</v>
+        <v>820925.6170364812</v>
       </c>
     </row>
     <row r="3">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.2717868062174</v>
+        <v>528.9850893238716</v>
       </c>
       <c r="AB3" t="n">
-        <v>588.7168409598013</v>
+        <v>723.7807363880079</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.530531927873</v>
+        <v>654.7041187397791</v>
       </c>
       <c r="AD3" t="n">
-        <v>430271.7868062174</v>
+        <v>528985.0893238717</v>
       </c>
       <c r="AE3" t="n">
-        <v>588716.8409598013</v>
+        <v>723780.7363880079</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.334324893416417e-06</v>
+        <v>1.981263240749875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>532530.5319278729</v>
+        <v>654704.1187397791</v>
       </c>
     </row>
     <row r="4">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.4070820154706</v>
+        <v>484.1202950245739</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.3309725740177</v>
+        <v>662.3947455326756</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.0032446652211</v>
+        <v>599.1767206959007</v>
       </c>
       <c r="AD4" t="n">
-        <v>385407.0820154706</v>
+        <v>484120.2950245739</v>
       </c>
       <c r="AE4" t="n">
-        <v>527330.9725740177</v>
+        <v>662394.7455326756</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413562406664194e-06</v>
+        <v>2.098918523253294e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>477003.2446652211</v>
+        <v>599176.7206959007</v>
       </c>
     </row>
     <row r="5">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>370.1856379913215</v>
+        <v>460.6657276870028</v>
       </c>
       <c r="AB5" t="n">
-        <v>506.5043213374601</v>
+        <v>630.3031717589286</v>
       </c>
       <c r="AC5" t="n">
-        <v>458.1642597922919</v>
+        <v>570.1479216823133</v>
       </c>
       <c r="AD5" t="n">
-        <v>370185.6379913214</v>
+        <v>460665.7276870028</v>
       </c>
       <c r="AE5" t="n">
-        <v>506504.3213374601</v>
+        <v>630303.1717589286</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.448118421075863e-06</v>
+        <v>2.150228786172367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.36979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>458164.259792292</v>
+        <v>570147.9216823133</v>
       </c>
     </row>
     <row r="6">
@@ -8573,28 +8573,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>365.6330063170482</v>
+        <v>456.1130960127296</v>
       </c>
       <c r="AB6" t="n">
-        <v>500.2752098327852</v>
+        <v>624.0740602542537</v>
       </c>
       <c r="AC6" t="n">
-        <v>452.5296459470104</v>
+        <v>564.5133078370318</v>
       </c>
       <c r="AD6" t="n">
-        <v>365633.0063170482</v>
+        <v>456113.0960127296</v>
       </c>
       <c r="AE6" t="n">
-        <v>500275.2098327852</v>
+        <v>624074.0602542537</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455333139707528e-06</v>
+        <v>2.160941512051799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.25260416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>452529.6459470104</v>
+        <v>564513.3078370318</v>
       </c>
     </row>
   </sheetData>
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.6714454366927</v>
+        <v>733.9637859153726</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.8111243354888</v>
+        <v>1004.241632086368</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.328799486663</v>
+        <v>908.3982201820276</v>
       </c>
       <c r="AD2" t="n">
-        <v>608671.4454366927</v>
+        <v>733963.7859153725</v>
       </c>
       <c r="AE2" t="n">
-        <v>832811.1243354888</v>
+        <v>1004241.632086368</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.049744551064759e-06</v>
+        <v>1.543588980133526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>753328.799486663</v>
+        <v>908398.2201820276</v>
       </c>
     </row>
     <row r="3">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.3267674476598</v>
+        <v>571.6289304159714</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.8900766913395</v>
+        <v>782.127921083711</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.3426728808246</v>
+        <v>707.4827300189125</v>
       </c>
       <c r="AD3" t="n">
-        <v>471326.7674476598</v>
+        <v>571628.9304159713</v>
       </c>
       <c r="AE3" t="n">
-        <v>644890.0766913395</v>
+        <v>782127.9210837111</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.267834984093353e-06</v>
+        <v>1.864278417153256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.0390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>583342.6728808245</v>
+        <v>707482.7300189126</v>
       </c>
     </row>
     <row r="4">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.6913299513641</v>
+        <v>523.8228112105324</v>
       </c>
       <c r="AB4" t="n">
-        <v>579.7131695817238</v>
+        <v>716.7174797297</v>
       </c>
       <c r="AC4" t="n">
-        <v>524.3861583093869</v>
+        <v>648.3149693835974</v>
       </c>
       <c r="AD4" t="n">
-        <v>423691.3299513641</v>
+        <v>523822.8112105324</v>
       </c>
       <c r="AE4" t="n">
-        <v>579713.1695817239</v>
+        <v>716717.4797297</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.351395284129345e-06</v>
+        <v>1.987149031896034e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.48958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>524386.1583093869</v>
+        <v>648314.9693835974</v>
       </c>
     </row>
     <row r="5">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>396.9877358134652</v>
+        <v>497.204468418654</v>
       </c>
       <c r="AB5" t="n">
-        <v>543.1761340028218</v>
+        <v>680.2970888034473</v>
       </c>
       <c r="AC5" t="n">
-        <v>491.3361661260838</v>
+        <v>615.3704894510064</v>
       </c>
       <c r="AD5" t="n">
-        <v>396987.7358134652</v>
+        <v>497204.468418654</v>
       </c>
       <c r="AE5" t="n">
-        <v>543176.1340028218</v>
+        <v>680297.0888034473</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.393931084468553e-06</v>
+        <v>2.04969547959911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.7734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>491336.1661260838</v>
+        <v>615370.4894510064</v>
       </c>
     </row>
     <row r="6">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>381.5178593531962</v>
+        <v>473.3761753452894</v>
       </c>
       <c r="AB6" t="n">
-        <v>522.0095665470997</v>
+        <v>647.6941669903714</v>
       </c>
       <c r="AC6" t="n">
-        <v>472.1897061608717</v>
+        <v>585.8791447372823</v>
       </c>
       <c r="AD6" t="n">
-        <v>381517.8593531962</v>
+        <v>473376.1753452893</v>
       </c>
       <c r="AE6" t="n">
-        <v>522009.5665470996</v>
+        <v>647694.1669903714</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.421841394719782e-06</v>
+        <v>2.090735985398551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.31770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>472189.7061608717</v>
+        <v>585879.1447372823</v>
       </c>
     </row>
     <row r="7">
@@ -9400,28 +9400,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>379.9666192715766</v>
+        <v>471.8249352636698</v>
       </c>
       <c r="AB7" t="n">
-        <v>519.8870914315452</v>
+        <v>645.5716918748172</v>
       </c>
       <c r="AC7" t="n">
-        <v>470.2697970914334</v>
+        <v>583.959235667844</v>
       </c>
       <c r="AD7" t="n">
-        <v>379966.6192715766</v>
+        <v>471824.9352636698</v>
       </c>
       <c r="AE7" t="n">
-        <v>519887.0914315452</v>
+        <v>645571.6918748172</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425107754172764e-06</v>
+        <v>2.095538979090363e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>470269.7970914334</v>
+        <v>583959.2356678441</v>
       </c>
     </row>
   </sheetData>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>747.4301593305436</v>
+        <v>893.3240778721396</v>
       </c>
       <c r="AB2" t="n">
-        <v>1022.666918287471</v>
+        <v>1222.285414021512</v>
       </c>
       <c r="AC2" t="n">
-        <v>925.065022928149</v>
+        <v>1105.632209595651</v>
       </c>
       <c r="AD2" t="n">
-        <v>747430.1593305436</v>
+        <v>893324.0778721396</v>
       </c>
       <c r="AE2" t="n">
-        <v>1022666.918287471</v>
+        <v>1222285.414021512</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.111963054539136e-07</v>
+        <v>1.318293762905849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.61979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>925065.022928149</v>
+        <v>1105632.209595651</v>
       </c>
     </row>
     <row r="3">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>546.6447836178453</v>
+        <v>666.7073756798823</v>
       </c>
       <c r="AB3" t="n">
-        <v>747.9435092117494</v>
+        <v>912.2184444587614</v>
       </c>
       <c r="AC3" t="n">
-        <v>676.5608304378875</v>
+        <v>825.1575964262444</v>
       </c>
       <c r="AD3" t="n">
-        <v>546644.7836178453</v>
+        <v>666707.3756798822</v>
       </c>
       <c r="AE3" t="n">
-        <v>747943.5092117494</v>
+        <v>912218.4444587614</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.150594735736747e-06</v>
+        <v>1.664648829977916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.62760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>676560.8304378875</v>
+        <v>825157.5964262444</v>
       </c>
     </row>
     <row r="4">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.1033800215802</v>
+        <v>600.5839768752877</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.2128222637745</v>
+        <v>821.7454930558429</v>
       </c>
       <c r="AC4" t="n">
-        <v>605.3440897530141</v>
+        <v>743.3192565256355</v>
       </c>
       <c r="AD4" t="n">
-        <v>489103.3800215801</v>
+        <v>600583.9768752877</v>
       </c>
       <c r="AE4" t="n">
-        <v>669212.8222637745</v>
+        <v>821745.4930558428</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244518915951889e-06</v>
+        <v>1.800535751624274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.62239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>605344.0897530142</v>
+        <v>743319.2565256355</v>
       </c>
     </row>
     <row r="5">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.6865961263665</v>
+        <v>562.6705386263166</v>
       </c>
       <c r="AB5" t="n">
-        <v>628.9634807614302</v>
+        <v>769.8706542207527</v>
       </c>
       <c r="AC5" t="n">
-        <v>568.936088913348</v>
+        <v>696.3952795021729</v>
       </c>
       <c r="AD5" t="n">
-        <v>459686.5961263665</v>
+        <v>562670.5386263166</v>
       </c>
       <c r="AE5" t="n">
-        <v>628963.4807614302</v>
+        <v>769870.6542207528</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.292280961502174e-06</v>
+        <v>1.869636565988529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.7109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>568936.088913348</v>
+        <v>696395.279502173</v>
       </c>
     </row>
     <row r="6">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>444.2625685659689</v>
+        <v>547.0759188653269</v>
       </c>
       <c r="AB6" t="n">
-        <v>607.8596457932229</v>
+        <v>748.5334074776985</v>
       </c>
       <c r="AC6" t="n">
-        <v>549.8463743350881</v>
+        <v>677.0944296412619</v>
       </c>
       <c r="AD6" t="n">
-        <v>444262.5685659689</v>
+        <v>547075.9188653269</v>
       </c>
       <c r="AE6" t="n">
-        <v>607859.6457932228</v>
+        <v>748533.4074776984</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.325855561994912e-06</v>
+        <v>1.918211374903698e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.11197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>549846.3743350881</v>
+        <v>677094.4296412618</v>
       </c>
     </row>
     <row r="7">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>422.7944154242138</v>
+        <v>525.6930170695922</v>
       </c>
       <c r="AB7" t="n">
-        <v>578.4859715566002</v>
+        <v>719.2763778937252</v>
       </c>
       <c r="AC7" t="n">
-        <v>523.276082341398</v>
+        <v>650.6296498982841</v>
       </c>
       <c r="AD7" t="n">
-        <v>422794.4154242137</v>
+        <v>525693.0170695923</v>
       </c>
       <c r="AE7" t="n">
-        <v>578485.9715566003</v>
+        <v>719276.3778937252</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.348466067302214e-06</v>
+        <v>1.950923632344116e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.72135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>523276.082341398</v>
+        <v>650629.6498982841</v>
       </c>
     </row>
     <row r="8">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>412.2580250908466</v>
+        <v>515.1566267362251</v>
       </c>
       <c r="AB8" t="n">
-        <v>564.0696174697521</v>
+        <v>704.8600238068769</v>
       </c>
       <c r="AC8" t="n">
-        <v>510.2356048551185</v>
+        <v>637.5891724120046</v>
       </c>
       <c r="AD8" t="n">
-        <v>412258.0250908466</v>
+        <v>515156.6267362251</v>
       </c>
       <c r="AE8" t="n">
-        <v>564069.6174697521</v>
+        <v>704860.023806877</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.35935957818388e-06</v>
+        <v>1.966684064388771e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.5390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>510235.6048551185</v>
+        <v>637589.1724120046</v>
       </c>
     </row>
     <row r="9">
@@ -10439,28 +10439,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>407.6450960361534</v>
+        <v>501.9617919817538</v>
       </c>
       <c r="AB9" t="n">
-        <v>557.7580044290538</v>
+        <v>686.8062687807835</v>
       </c>
       <c r="AC9" t="n">
-        <v>504.5263633046199</v>
+        <v>621.2584424269972</v>
       </c>
       <c r="AD9" t="n">
-        <v>407645.0960361534</v>
+        <v>501961.7919817538</v>
       </c>
       <c r="AE9" t="n">
-        <v>557758.0044290539</v>
+        <v>686806.2687807835</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.367382660712278e-06</v>
+        <v>1.978291639609565e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.40885416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>504526.3633046199</v>
+        <v>621258.4424269972</v>
       </c>
     </row>
   </sheetData>
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.3235931847121</v>
+        <v>595.494330248905</v>
       </c>
       <c r="AB2" t="n">
-        <v>659.9364188104861</v>
+        <v>814.7816140022641</v>
       </c>
       <c r="AC2" t="n">
-        <v>596.9530132257937</v>
+        <v>737.0200003150646</v>
       </c>
       <c r="AD2" t="n">
-        <v>482323.5931847121</v>
+        <v>595494.330248905</v>
       </c>
       <c r="AE2" t="n">
-        <v>659936.4188104861</v>
+        <v>814781.6140022641</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.221859075052274e-06</v>
+        <v>1.834846973524805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.12239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>596953.0132257937</v>
+        <v>737020.0003150647</v>
       </c>
     </row>
     <row r="3">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>388.2048747626884</v>
+        <v>485.3545855610756</v>
       </c>
       <c r="AB3" t="n">
-        <v>531.1590360406658</v>
+        <v>664.0835562977729</v>
       </c>
       <c r="AC3" t="n">
-        <v>480.4659631273331</v>
+        <v>600.7043537318378</v>
       </c>
       <c r="AD3" t="n">
-        <v>388204.8747626884</v>
+        <v>485354.5855610756</v>
       </c>
       <c r="AE3" t="n">
-        <v>531159.0360406658</v>
+        <v>664083.5562977729</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.410089974371307e-06</v>
+        <v>2.117510418918133e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.50260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>480465.9631273331</v>
+        <v>600704.3537318378</v>
       </c>
     </row>
     <row r="4">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>355.6381432750708</v>
+        <v>444.6067934942385</v>
       </c>
       <c r="AB4" t="n">
-        <v>486.5997972765145</v>
+        <v>608.3306295262133</v>
       </c>
       <c r="AC4" t="n">
-        <v>440.1593955715479</v>
+        <v>550.2724080416316</v>
       </c>
       <c r="AD4" t="n">
-        <v>355638.1432750708</v>
+        <v>444606.7934942385</v>
       </c>
       <c r="AE4" t="n">
-        <v>486599.7972765145</v>
+        <v>608330.6295262133</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.476931670329627e-06</v>
+        <v>2.217885565314737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.43489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>440159.3955715479</v>
+        <v>550272.4080416316</v>
       </c>
     </row>
     <row r="5">
@@ -11054,28 +11054,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>350.4854725167302</v>
+        <v>439.454122735898</v>
       </c>
       <c r="AB5" t="n">
-        <v>479.5496858251625</v>
+        <v>601.2805180748612</v>
       </c>
       <c r="AC5" t="n">
-        <v>433.7821368622194</v>
+        <v>543.895149332303</v>
       </c>
       <c r="AD5" t="n">
-        <v>350485.4725167303</v>
+        <v>439454.122735898</v>
       </c>
       <c r="AE5" t="n">
-        <v>479549.6858251625</v>
+        <v>601280.5180748613</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.491414886247482e-06</v>
+        <v>2.239634787820322e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.2265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>433782.1368622194</v>
+        <v>543895.1493323031</v>
       </c>
     </row>
   </sheetData>
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.0596329708537</v>
+        <v>490.35802638437</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.906262748553</v>
+        <v>670.9294847684345</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.1874896020469</v>
+        <v>606.8969163975804</v>
       </c>
       <c r="AD2" t="n">
-        <v>396059.6329708537</v>
+        <v>490358.0263843699</v>
       </c>
       <c r="AE2" t="n">
-        <v>541906.262748553</v>
+        <v>670929.4847684344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.379148013759377e-06</v>
+        <v>2.115263782330135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>490187.4896020469</v>
+        <v>606896.9163975804</v>
       </c>
     </row>
     <row r="3">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.4039323288292</v>
+        <v>423.6168953792227</v>
       </c>
       <c r="AB3" t="n">
-        <v>450.7049924881629</v>
+        <v>579.6113249162983</v>
       </c>
       <c r="AC3" t="n">
-        <v>407.6903405735217</v>
+        <v>524.2940335558899</v>
       </c>
       <c r="AD3" t="n">
-        <v>329403.9323288292</v>
+        <v>423616.8953792228</v>
       </c>
       <c r="AE3" t="n">
-        <v>450704.9924881629</v>
+        <v>579611.3249162983</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.533594561488847e-06</v>
+        <v>2.352145672786216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.51302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>407690.3405735217</v>
+        <v>524294.0335558899</v>
       </c>
     </row>
     <row r="4">
@@ -11563,28 +11563,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.4836860928164</v>
+        <v>412.8385466596806</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.7093827558788</v>
+        <v>564.8639126910349</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.0760662262134</v>
+        <v>510.9540936552825</v>
       </c>
       <c r="AD4" t="n">
-        <v>326483.6860928164</v>
+        <v>412838.5466596806</v>
       </c>
       <c r="AE4" t="n">
-        <v>446709.3827558788</v>
+        <v>564863.9126910348</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.545923770878409e-06</v>
+        <v>2.371055557603739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.33072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>404076.0662262134</v>
+        <v>510954.0936552825</v>
       </c>
     </row>
   </sheetData>
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.1503560868829</v>
+        <v>425.1694771679798</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.8310147544832</v>
+        <v>581.7356358147501</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.327142469162</v>
+        <v>526.2156032036823</v>
       </c>
       <c r="AD2" t="n">
-        <v>333150.3560868829</v>
+        <v>425169.4771679798</v>
       </c>
       <c r="AE2" t="n">
-        <v>455831.0147544832</v>
+        <v>581735.6358147501</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.506370762639563e-06</v>
+        <v>2.353674602910369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>412327.1424691619</v>
+        <v>526215.6032036823</v>
       </c>
     </row>
     <row r="3">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.9460602764215</v>
+        <v>399.8798405029468</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.3453852915553</v>
+        <v>547.1332392296243</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.1327730812908</v>
+        <v>494.9156107838724</v>
       </c>
       <c r="AD3" t="n">
-        <v>307946.0602764215</v>
+        <v>399879.8405029468</v>
       </c>
       <c r="AE3" t="n">
-        <v>421345.3852915553</v>
+        <v>547133.2392296244</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580371387493472e-06</v>
+        <v>2.469299119555226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>381132.7730812908</v>
+        <v>494915.6107838724</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.6471996803224</v>
+        <v>376.0630222442781</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.9398328183321</v>
+        <v>514.5460177642487</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.2473294756864</v>
+        <v>465.4384679986998</v>
       </c>
       <c r="AD2" t="n">
-        <v>288647.1996803224</v>
+        <v>376063.0222442781</v>
       </c>
       <c r="AE2" t="n">
-        <v>394939.8328183321</v>
+        <v>514546.0177642488</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.594628110917507e-06</v>
+        <v>2.598727373525624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>357247.3294756864</v>
+        <v>465438.4679986998</v>
       </c>
     </row>
   </sheetData>
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.3849232054748</v>
+        <v>697.6722655932007</v>
       </c>
       <c r="AB2" t="n">
-        <v>784.5305478872443</v>
+        <v>954.5859729126938</v>
       </c>
       <c r="AC2" t="n">
-        <v>709.6560534924246</v>
+        <v>863.4816274277333</v>
       </c>
       <c r="AD2" t="n">
-        <v>573384.9232054749</v>
+        <v>697672.2655932007</v>
       </c>
       <c r="AE2" t="n">
-        <v>784530.5478872444</v>
+        <v>954585.9729126939</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.090136297679616e-06</v>
+        <v>1.610546440773261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.40104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>709656.0534924245</v>
+        <v>863481.6274277333</v>
       </c>
     </row>
     <row r="3">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.2387802391475</v>
+        <v>554.0169826944514</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.5635857887715</v>
+        <v>758.030477226831</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.2922540924651</v>
+        <v>685.685112382758</v>
       </c>
       <c r="AD3" t="n">
-        <v>446238.7802391475</v>
+        <v>554016.9826944513</v>
       </c>
       <c r="AE3" t="n">
-        <v>610563.5857887715</v>
+        <v>758030.4772268309</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301196335620161e-06</v>
+        <v>1.922362489480333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>552292.2540924652</v>
+        <v>685685.1123827581</v>
       </c>
     </row>
     <row r="4">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.0113421845064</v>
+        <v>508.4070976545686</v>
       </c>
       <c r="AB4" t="n">
-        <v>559.6273626837565</v>
+        <v>695.6250203491468</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.2173126311546</v>
+        <v>629.2355447228714</v>
       </c>
       <c r="AD4" t="n">
-        <v>409011.3421845064</v>
+        <v>508407.0976545686</v>
       </c>
       <c r="AE4" t="n">
-        <v>559627.3626837565</v>
+        <v>695625.0203491468</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381159359442731e-06</v>
+        <v>2.040498325967044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>506217.3126311547</v>
+        <v>629235.5447228714</v>
       </c>
     </row>
     <row r="5">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>382.5014690150545</v>
+        <v>481.9824758311372</v>
       </c>
       <c r="AB5" t="n">
-        <v>523.3553846802497</v>
+        <v>659.4696869982893</v>
       </c>
       <c r="AC5" t="n">
-        <v>473.4070813002617</v>
+        <v>596.5308256426907</v>
       </c>
       <c r="AD5" t="n">
-        <v>382501.4690150545</v>
+        <v>481982.4758311372</v>
       </c>
       <c r="AE5" t="n">
-        <v>523355.3846802497</v>
+        <v>659469.6869982893</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.423356595536291e-06</v>
+        <v>2.102839712585955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.52604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>473407.0813002617</v>
+        <v>596530.8256426908</v>
       </c>
     </row>
     <row r="6">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>373.1932426981097</v>
+        <v>464.3771433835224</v>
       </c>
       <c r="AB6" t="n">
-        <v>510.619458783443</v>
+        <v>635.3812944510111</v>
       </c>
       <c r="AC6" t="n">
-        <v>461.8866542960619</v>
+        <v>574.7413954718536</v>
       </c>
       <c r="AD6" t="n">
-        <v>373193.2426981097</v>
+        <v>464377.1433835223</v>
       </c>
       <c r="AE6" t="n">
-        <v>510619.458783443</v>
+        <v>635381.2944510111</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43768494524834e-06</v>
+        <v>2.124008141414546e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>461886.6542960619</v>
+        <v>574741.3954718536</v>
       </c>
     </row>
     <row r="7">
@@ -21863,28 +21863,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>372.381056270473</v>
+        <v>463.5649569558856</v>
       </c>
       <c r="AB7" t="n">
-        <v>509.5081894820141</v>
+        <v>634.2700251495825</v>
       </c>
       <c r="AC7" t="n">
-        <v>460.8814429770852</v>
+        <v>573.7361841528768</v>
       </c>
       <c r="AD7" t="n">
-        <v>372381.0562704731</v>
+        <v>463564.9569558856</v>
       </c>
       <c r="AE7" t="n">
-        <v>509508.1894820141</v>
+        <v>634270.0251495824</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.441870202037084e-06</v>
+        <v>2.130191359457262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.2265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>460881.4429770852</v>
+        <v>573736.1841528768</v>
       </c>
     </row>
   </sheetData>
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>710.6996520373857</v>
+        <v>855.607019474827</v>
       </c>
       <c r="AB2" t="n">
-        <v>972.4106177733554</v>
+        <v>1170.679270763128</v>
       </c>
       <c r="AC2" t="n">
-        <v>879.6051131999395</v>
+        <v>1058.951284220171</v>
       </c>
       <c r="AD2" t="n">
-        <v>710699.6520373857</v>
+        <v>855607.019474827</v>
       </c>
       <c r="AE2" t="n">
-        <v>972410.6177733555</v>
+        <v>1170679.270763129</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.416689389886605e-07</v>
+        <v>1.367462456179393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.79947916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>879605.1131999395</v>
+        <v>1058951.284220171</v>
       </c>
     </row>
     <row r="3">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>529.2454453069982</v>
+        <v>640.0369708901641</v>
       </c>
       <c r="AB3" t="n">
-        <v>724.1369669302169</v>
+        <v>875.7268200102509</v>
       </c>
       <c r="AC3" t="n">
-        <v>655.0263511390125</v>
+        <v>792.1486813987833</v>
       </c>
       <c r="AD3" t="n">
-        <v>529245.4453069982</v>
+        <v>640036.970890164</v>
       </c>
       <c r="AE3" t="n">
-        <v>724136.9669302169</v>
+        <v>875726.8200102509</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178930699471002e-06</v>
+        <v>1.712006633345395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>655026.3511390125</v>
+        <v>792148.6813987833</v>
       </c>
     </row>
     <row r="4">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>475.9267155565233</v>
+        <v>578.1892582989825</v>
       </c>
       <c r="AB4" t="n">
-        <v>651.1839286292746</v>
+        <v>791.1040511144869</v>
       </c>
       <c r="AC4" t="n">
-        <v>589.0358484232798</v>
+        <v>715.6021907976287</v>
       </c>
       <c r="AD4" t="n">
-        <v>475926.7155565233</v>
+        <v>578189.2582989825</v>
       </c>
       <c r="AE4" t="n">
-        <v>651183.9286292746</v>
+        <v>791104.0511144869</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267420487152148e-06</v>
+        <v>1.840508761215527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>589035.8484232798</v>
+        <v>715602.1907976287</v>
       </c>
     </row>
     <row r="5">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>445.6374432797269</v>
+        <v>547.8146451676145</v>
       </c>
       <c r="AB5" t="n">
-        <v>609.740810031778</v>
+        <v>749.5441653947926</v>
       </c>
       <c r="AC5" t="n">
-        <v>551.5480028989459</v>
+        <v>678.0087222413561</v>
       </c>
       <c r="AD5" t="n">
-        <v>445637.4432797269</v>
+        <v>547814.6451676144</v>
       </c>
       <c r="AE5" t="n">
-        <v>609740.8100317779</v>
+        <v>749544.1653947926</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319280721970106e-06</v>
+        <v>1.9158185873614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.41145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>551548.0028989459</v>
+        <v>678008.722241356</v>
       </c>
     </row>
     <row r="6">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>422.9520801636904</v>
+        <v>525.2145333975985</v>
       </c>
       <c r="AB6" t="n">
-        <v>578.7016954088297</v>
+        <v>718.6216954244936</v>
       </c>
       <c r="AC6" t="n">
-        <v>523.471217811941</v>
+        <v>650.0374494050633</v>
       </c>
       <c r="AD6" t="n">
-        <v>422952.0801636904</v>
+        <v>525214.5333975985</v>
       </c>
       <c r="AE6" t="n">
-        <v>578701.6954088297</v>
+        <v>718621.6954244936</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347630667353207e-06</v>
+        <v>1.956987499641509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>523471.2178119409</v>
+        <v>650037.4494050633</v>
       </c>
     </row>
     <row r="7">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>409.4681994605338</v>
+        <v>511.7306526944419</v>
       </c>
       <c r="AB7" t="n">
-        <v>560.2524549639378</v>
+        <v>700.1724549796015</v>
       </c>
       <c r="AC7" t="n">
-        <v>506.7827469814378</v>
+        <v>633.3489785745603</v>
       </c>
       <c r="AD7" t="n">
-        <v>409468.1994605337</v>
+        <v>511730.6526944418</v>
       </c>
       <c r="AE7" t="n">
-        <v>560252.4549639378</v>
+        <v>700172.4549796015</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.369812423782663e-06</v>
+        <v>1.989199159040591e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>506782.7469814378</v>
+        <v>633348.9785745603</v>
       </c>
     </row>
     <row r="8">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>401.7357761282489</v>
+        <v>495.4693360300014</v>
       </c>
       <c r="AB8" t="n">
-        <v>549.6726122302639</v>
+        <v>677.9230041206544</v>
       </c>
       <c r="AC8" t="n">
-        <v>497.2126295893632</v>
+        <v>613.2229840782906</v>
       </c>
       <c r="AD8" t="n">
-        <v>401735.7761282489</v>
+        <v>495469.3360300014</v>
       </c>
       <c r="AE8" t="n">
-        <v>549672.6122302639</v>
+        <v>677923.0041206543</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377214250527038e-06</v>
+        <v>1.999947862497824e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.43489583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>497212.6295893632</v>
+        <v>613222.9840782905</v>
       </c>
     </row>
     <row r="9">
@@ -22902,28 +22902,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>400.7752404838604</v>
+        <v>494.5088003856129</v>
       </c>
       <c r="AB9" t="n">
-        <v>548.3583649857698</v>
+        <v>676.6087568761602</v>
       </c>
       <c r="AC9" t="n">
-        <v>496.023812257326</v>
+        <v>612.0341667462533</v>
       </c>
       <c r="AD9" t="n">
-        <v>400775.2404838604</v>
+        <v>494508.8003856129</v>
       </c>
       <c r="AE9" t="n">
-        <v>548358.3649857697</v>
+        <v>676608.7568761602</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.381959011260611e-06</v>
+        <v>2.006838057021692e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.35677083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>496023.812257326</v>
+        <v>612034.1667462533</v>
       </c>
     </row>
   </sheetData>
@@ -23199,28 +23199,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.0127161133854</v>
+        <v>379.4613299878977</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.1257514755184</v>
+        <v>519.1957323418258</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.5607674750637</v>
+        <v>469.6444203429081</v>
       </c>
       <c r="AD2" t="n">
-        <v>280012.7161133854</v>
+        <v>379461.3299878977</v>
       </c>
       <c r="AE2" t="n">
-        <v>383125.7514755185</v>
+        <v>519195.7323418257</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.53912190859732e-06</v>
+        <v>2.565624522223207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.79427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>346560.7674750637</v>
+        <v>469644.4203429081</v>
       </c>
     </row>
   </sheetData>
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.774337291062</v>
+        <v>530.7992292433408</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.3537674183781</v>
+        <v>726.2629226600304</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.5382499665427</v>
+        <v>656.9494086377703</v>
       </c>
       <c r="AD2" t="n">
-        <v>419774.3372910619</v>
+        <v>530799.2292433409</v>
       </c>
       <c r="AE2" t="n">
-        <v>574353.767418378</v>
+        <v>726262.9226600304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.321865709100295e-06</v>
+        <v>2.011756175706777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>519538.2499665428</v>
+        <v>656949.4086377702</v>
       </c>
     </row>
     <row r="3">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.6880317085747</v>
+        <v>440.9131825637936</v>
       </c>
       <c r="AB3" t="n">
-        <v>472.9856156632931</v>
+        <v>603.2768681005647</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.8445323438685</v>
+        <v>545.7009705134484</v>
       </c>
       <c r="AD3" t="n">
-        <v>345688.0317085747</v>
+        <v>440913.1825637936</v>
       </c>
       <c r="AE3" t="n">
-        <v>472985.6156632931</v>
+        <v>603276.8681005647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.49248128232185e-06</v>
+        <v>2.271417146361531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.79947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>427844.5323438685</v>
+        <v>545700.9705134484</v>
       </c>
     </row>
     <row r="4">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.0551366453009</v>
+        <v>421.337836033255</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.068975430612</v>
+        <v>576.4930153741429</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.4469539158496</v>
+        <v>521.4733310998628</v>
       </c>
       <c r="AD4" t="n">
-        <v>334055.136645301</v>
+        <v>421337.836033255</v>
       </c>
       <c r="AE4" t="n">
-        <v>457068.975430612</v>
+        <v>576493.0153741429</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524618672071087e-06</v>
+        <v>2.320327252625749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.31770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>413446.9539158496</v>
+        <v>521473.3310998628</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>505.9166861313645</v>
+        <v>628.239321717689</v>
       </c>
       <c r="AB2" t="n">
-        <v>692.2175294338969</v>
+        <v>859.5847559369226</v>
       </c>
       <c r="AC2" t="n">
-        <v>626.1532599581294</v>
+        <v>777.5471932650842</v>
       </c>
       <c r="AD2" t="n">
-        <v>505916.6861313645</v>
+        <v>628239.321717689</v>
       </c>
       <c r="AE2" t="n">
-        <v>692217.5294338969</v>
+        <v>859584.7559369226</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176503391778072e-06</v>
+        <v>1.756414495137876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>626153.2599581294</v>
+        <v>777547.1932650842</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.2887559893645</v>
+        <v>510.2789492696268</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.1657119057647</v>
+        <v>698.1861703091346</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.3723527344306</v>
+        <v>631.5522621252744</v>
       </c>
       <c r="AD3" t="n">
-        <v>404288.7559893645</v>
+        <v>510278.9492696268</v>
       </c>
       <c r="AE3" t="n">
-        <v>553165.7119057648</v>
+        <v>698186.1703091345</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.373446774237191e-06</v>
+        <v>2.050433376927833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>500372.3527344306</v>
+        <v>631552.2621252744</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.511543449857</v>
+        <v>468.4208564316596</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.9502395637626</v>
+        <v>640.9140810395019</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.5676202089262</v>
+        <v>579.7461406736534</v>
       </c>
       <c r="AD4" t="n">
-        <v>370511.543449857</v>
+        <v>468420.8564316596</v>
       </c>
       <c r="AE4" t="n">
-        <v>506950.2395637626</v>
+        <v>640914.0810395018</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445819505280093e-06</v>
+        <v>2.158479401057312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>458567.6202089262</v>
+        <v>579746.1406736533</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>358.754302161466</v>
+        <v>448.4974834987884</v>
       </c>
       <c r="AB5" t="n">
-        <v>490.8634633401079</v>
+        <v>613.6540432355674</v>
       </c>
       <c r="AC5" t="n">
-        <v>444.0161433301249</v>
+        <v>555.0877626180231</v>
       </c>
       <c r="AD5" t="n">
-        <v>358754.302161466</v>
+        <v>448497.4834987884</v>
       </c>
       <c r="AE5" t="n">
-        <v>490863.4633401079</v>
+        <v>613654.0432355674</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.470547483943692e-06</v>
+        <v>2.195396064845731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.27864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>444016.1433301249</v>
+        <v>555087.7626180231</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.3013270636765</v>
+        <v>448.0445084009991</v>
       </c>
       <c r="AB6" t="n">
-        <v>490.2436828274615</v>
+        <v>613.0342627229211</v>
       </c>
       <c r="AC6" t="n">
-        <v>443.4555137997381</v>
+        <v>554.5271330876363</v>
       </c>
       <c r="AD6" t="n">
-        <v>358301.3270636766</v>
+        <v>448044.5084009991</v>
       </c>
       <c r="AE6" t="n">
-        <v>490243.6828274615</v>
+        <v>613034.2627229211</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.474949718192044e-06</v>
+        <v>2.201968207432682e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.21354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>443455.5137997381</v>
+        <v>554527.1330876363</v>
       </c>
     </row>
   </sheetData>
